--- a/writeSDoCfromExcel/P180Inputfile.xlsx
+++ b/writeSDoCfromExcel/P180Inputfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KB-OPEN\___WikimediaKB\_LOD-Wikidata\SDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C59E4-F040-4F0A-A02E-6ED698AD48D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D393EE30-2494-43A2-B546-27A155E15F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2042,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D989BA-0518-41F3-A0F7-46F19C380D7D}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:XFD597"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A2), "Klik")</f>
+        <f t="shared" ref="B2:B33" si="0">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A2), "Klik")</f>
         <v>Klik</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2112,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="18" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A3), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -2138,21 +2138,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A4), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4:D70" si="0">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/Special:EntityData/",C4), "Klik")</f>
+        <f t="shared" ref="D4:D70" si="1">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/Special:EntityData/",C4), "Klik")</f>
         <v>Klik</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f t="shared" ref="F4:F66" si="1">HYPERLINK(_xlfn.CONCAT("https://www.wikidata.org/wiki/",E4),"Klik")</f>
+        <f t="shared" ref="F4:F66" si="2">HYPERLINK(_xlfn.CONCAT("https://www.wikidata.org/wiki/",E4),"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="G4" s="20" t="s">
@@ -2164,21 +2164,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A5), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>300</v>
       </c>
       <c r="F5" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -2190,21 +2190,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="16" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A6), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>301</v>
       </c>
       <c r="F6" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -2216,21 +2216,21 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A7), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -2242,21 +2242,21 @@
         <v>8</v>
       </c>
       <c r="B8" s="14" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A8), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D8" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>300</v>
       </c>
       <c r="F8" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -2268,21 +2268,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A9), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>302</v>
       </c>
       <c r="F9" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -2294,21 +2294,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A10), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>303</v>
       </c>
       <c r="F10" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2320,21 +2320,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A11), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>295</v>
       </c>
       <c r="F11" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G11" s="21" t="s">
@@ -2346,21 +2346,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A12), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2372,21 +2372,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A13), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2398,21 +2398,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A14), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -2424,21 +2424,21 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A15), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -2450,21 +2450,21 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A16), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -2476,21 +2476,21 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A17), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -2502,21 +2502,21 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A18), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -2528,21 +2528,21 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A19), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -2554,21 +2554,21 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A20), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -2580,21 +2580,21 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A21), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -2606,21 +2606,21 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A22), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>304</v>
       </c>
       <c r="F22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -2632,21 +2632,21 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A23), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>304</v>
       </c>
       <c r="F23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -2658,21 +2658,21 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A24), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>304</v>
       </c>
       <c r="F24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -2684,21 +2684,21 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A25), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>305</v>
       </c>
       <c r="F25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -2710,21 +2710,21 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A26), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>306</v>
       </c>
       <c r="F26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -2736,21 +2736,21 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A27), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>306</v>
       </c>
       <c r="F27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G27" s="7" t="s">
@@ -2762,21 +2762,21 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A28), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>306</v>
       </c>
       <c r="F28" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G28" s="7" t="s">
@@ -2788,21 +2788,21 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A29), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>307</v>
       </c>
       <c r="F29" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -2814,21 +2814,21 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A30), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>307</v>
       </c>
       <c r="F30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -2840,21 +2840,21 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A31), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>307</v>
       </c>
       <c r="F31" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -2866,21 +2866,21 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A32), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>153</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>308</v>
       </c>
       <c r="F32" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -2892,21 +2892,21 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A33), "Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>308</v>
       </c>
       <c r="F33" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -2918,21 +2918,21 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A34), "Klik")</f>
+        <f t="shared" ref="B34:B65" si="3">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A34), "Klik")</f>
         <v>Klik</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>308</v>
       </c>
       <c r="F34" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -2944,21 +2944,21 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A35), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>308</v>
       </c>
       <c r="F35" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G35" s="7" t="s">
@@ -2970,21 +2970,21 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A36), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>309</v>
       </c>
       <c r="F36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -2996,21 +2996,21 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A37), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>309</v>
       </c>
       <c r="F37" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -3022,21 +3022,21 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A38), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>309</v>
       </c>
       <c r="F38" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -3048,21 +3048,21 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A39), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>147</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>310</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G39" s="7" t="s">
@@ -3074,21 +3074,21 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A40), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>311</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -3100,21 +3100,21 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A41), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>312</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -3126,21 +3126,21 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A42), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>148</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>313</v>
       </c>
       <c r="F42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -3152,21 +3152,21 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A43), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>313</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G43" s="7" t="s">
@@ -3178,21 +3178,21 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A44), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>314</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G44" s="7" t="s">
@@ -3204,21 +3204,21 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A45), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>162</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>314</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G45" s="7" t="s">
@@ -3230,21 +3230,21 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A46), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>160</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>315</v>
       </c>
       <c r="F46" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -3256,21 +3256,21 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A47), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>161</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>315</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G47" s="7" t="s">
@@ -3282,21 +3282,21 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A48), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>315</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -3308,21 +3308,21 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A49), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>316</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -3334,21 +3334,21 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A50), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>317</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -3360,21 +3360,21 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A51), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>317</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G51" s="7" t="s">
@@ -3386,21 +3386,21 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A52), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>156</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>318</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -3412,21 +3412,21 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A53), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>168</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>318</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G53" s="7" t="s">
@@ -3438,21 +3438,21 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A54), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>319</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -3464,21 +3464,21 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A55), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>154</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>319</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G55" s="7" t="s">
@@ -3490,21 +3490,21 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A56), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>320</v>
       </c>
       <c r="F56" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -3516,21 +3516,21 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A57), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>179</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>321</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -3542,21 +3542,21 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A58), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>322</v>
       </c>
       <c r="F58" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -3568,21 +3568,21 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A59), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>175</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>323</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -3594,21 +3594,21 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A60), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>323</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G60" s="7" t="s">
@@ -3620,21 +3620,21 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A61), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>177</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>324</v>
       </c>
       <c r="F61" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -3646,21 +3646,21 @@
         <v>59</v>
       </c>
       <c r="B62" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A62), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>174</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>325</v>
       </c>
       <c r="F62" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -3672,21 +3672,21 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A63), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>326</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G63" s="7" t="s">
@@ -3698,21 +3698,21 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A64), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>173</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>327</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -3724,21 +3724,21 @@
         <v>62</v>
       </c>
       <c r="B65" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A65), "Klik")</f>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>172</v>
       </c>
       <c r="D65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>328</v>
       </c>
       <c r="F65" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -3750,21 +3750,21 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A66), "Klik")</f>
+        <f t="shared" ref="B66:B97" si="4">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A66), "Klik")</f>
         <v>Klik</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>328</v>
       </c>
       <c r="F66" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="G66" s="7" t="s">
@@ -3776,21 +3776,21 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A67), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>171</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>329</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f t="shared" ref="F67:F118" si="2">HYPERLINK(_xlfn.CONCAT("https://www.wikidata.org/wiki/",E67),"Klik")</f>
+        <f t="shared" ref="F67:F118" si="5">HYPERLINK(_xlfn.CONCAT("https://www.wikidata.org/wiki/",E67),"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="G67" s="7" t="s">
@@ -3802,21 +3802,21 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A68), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>213</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F68" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -3828,21 +3828,21 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A69), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>212</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F69" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G69" s="7" t="s">
@@ -3854,21 +3854,21 @@
         <v>67</v>
       </c>
       <c r="B70" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A70), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>209</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F70" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G70" s="7" t="s">
@@ -3880,21 +3880,21 @@
         <v>68</v>
       </c>
       <c r="B71" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A71), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>211</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f t="shared" ref="D71:D122" si="3">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/Special:EntityData/",C71), "Klik")</f>
+        <f t="shared" ref="D71:D122" si="6">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/Special:EntityData/",C71), "Klik")</f>
         <v>Klik</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F71" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G71" s="7" t="s">
@@ -3906,21 +3906,21 @@
         <v>69</v>
       </c>
       <c r="B72" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A72), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D72" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>331</v>
       </c>
       <c r="F72" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -3932,21 +3932,21 @@
         <v>70</v>
       </c>
       <c r="B73" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A73), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>210</v>
       </c>
       <c r="D73" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>332</v>
       </c>
       <c r="F73" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G73" s="7" t="s">
@@ -3958,21 +3958,21 @@
         <v>71</v>
       </c>
       <c r="B74" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A74), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>214</v>
       </c>
       <c r="D74" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>332</v>
       </c>
       <c r="F74" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -3984,21 +3984,21 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A75), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>206</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>333</v>
       </c>
       <c r="F75" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G75" s="7" t="s">
@@ -4010,21 +4010,21 @@
         <v>73</v>
       </c>
       <c r="B76" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A76), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>205</v>
       </c>
       <c r="D76" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>334</v>
       </c>
       <c r="F76" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G76" s="7" t="s">
@@ -4036,21 +4036,21 @@
         <v>74</v>
       </c>
       <c r="B77" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A77), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>204</v>
       </c>
       <c r="D77" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>335</v>
       </c>
       <c r="F77" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G77" s="7" t="s">
@@ -4062,21 +4062,21 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A78), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>203</v>
       </c>
       <c r="D78" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F78" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -4088,21 +4088,21 @@
         <v>76</v>
       </c>
       <c r="B79" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A79), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>207</v>
       </c>
       <c r="D79" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F79" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G79" s="7" t="s">
@@ -4114,21 +4114,21 @@
         <v>77</v>
       </c>
       <c r="B80" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A80), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D80" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F80" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G80" s="7" t="s">
@@ -4140,21 +4140,21 @@
         <v>78</v>
       </c>
       <c r="B81" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A81), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>201</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F81" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G81" s="7" t="s">
@@ -4166,21 +4166,21 @@
         <v>79</v>
       </c>
       <c r="B82" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A82), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D82" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F82" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -4192,21 +4192,21 @@
         <v>80</v>
       </c>
       <c r="B83" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A83), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D83" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>337</v>
       </c>
       <c r="F83" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G83" s="7" t="s">
@@ -4218,21 +4218,21 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A84), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>197</v>
       </c>
       <c r="D84" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>337</v>
       </c>
       <c r="F84" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -4244,21 +4244,21 @@
         <v>82</v>
       </c>
       <c r="B85" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A85), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>196</v>
       </c>
       <c r="D85" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F85" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G85" s="7" t="s">
@@ -4270,21 +4270,21 @@
         <v>83</v>
       </c>
       <c r="B86" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A86), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>194</v>
       </c>
       <c r="D86" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F86" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -4296,21 +4296,21 @@
         <v>84</v>
       </c>
       <c r="B87" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A87), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>195</v>
       </c>
       <c r="D87" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F87" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G87" s="7" t="s">
@@ -4322,21 +4322,21 @@
         <v>85</v>
       </c>
       <c r="B88" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A88), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>192</v>
       </c>
       <c r="D88" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F88" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -4348,21 +4348,21 @@
         <v>86</v>
       </c>
       <c r="B89" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A89), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D89" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F89" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G89" s="7" t="s">
@@ -4374,21 +4374,21 @@
         <v>87</v>
       </c>
       <c r="B90" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A90), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>190</v>
       </c>
       <c r="D90" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>339</v>
       </c>
       <c r="F90" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G90" s="7" t="s">
@@ -4400,21 +4400,21 @@
         <v>88</v>
       </c>
       <c r="B91" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A91), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D91" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>340</v>
       </c>
       <c r="F91" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G91" s="7" t="s">
@@ -4426,21 +4426,21 @@
         <v>89</v>
       </c>
       <c r="B92" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A92), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>191</v>
       </c>
       <c r="D92" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>341</v>
       </c>
       <c r="F92" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -4452,21 +4452,21 @@
         <v>90</v>
       </c>
       <c r="B93" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A93), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D93" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>341</v>
       </c>
       <c r="F93" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G93" s="7" t="s">
@@ -4478,21 +4478,21 @@
         <v>91</v>
       </c>
       <c r="B94" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A94), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>181</v>
       </c>
       <c r="D94" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>341</v>
       </c>
       <c r="F94" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G94" s="7" t="s">
@@ -4504,21 +4504,21 @@
         <v>92</v>
       </c>
       <c r="B95" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A95), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D95" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>342</v>
       </c>
       <c r="F95" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G95" s="7" t="s">
@@ -4530,21 +4530,21 @@
         <v>93</v>
       </c>
       <c r="B96" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A96), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D96" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>342</v>
       </c>
       <c r="F96" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G96" s="7" t="s">
@@ -4556,21 +4556,21 @@
         <v>94</v>
       </c>
       <c r="B97" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A97), "Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>186</v>
       </c>
       <c r="D97" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>342</v>
       </c>
       <c r="F97" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G97" s="7" t="s">
@@ -4582,21 +4582,21 @@
         <v>95</v>
       </c>
       <c r="B98" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A98), "Klik")</f>
+        <f t="shared" ref="B98:B129" si="7">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A98), "Klik")</f>
         <v>Klik</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D98" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>343</v>
       </c>
       <c r="F98" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G98" s="7" t="s">
@@ -4608,21 +4608,21 @@
         <v>96</v>
       </c>
       <c r="B99" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A99), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D99" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>344</v>
       </c>
       <c r="F99" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G99" s="7" t="s">
@@ -4634,21 +4634,21 @@
         <v>97</v>
       </c>
       <c r="B100" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A100), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>188</v>
       </c>
       <c r="D100" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>344</v>
       </c>
       <c r="F100" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G100" s="7" t="s">
@@ -4660,21 +4660,21 @@
         <v>98</v>
       </c>
       <c r="B101" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A101), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>178</v>
       </c>
       <c r="D101" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>345</v>
       </c>
       <c r="F101" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G101" s="7" t="s">
@@ -4686,21 +4686,21 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A102), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>180</v>
       </c>
       <c r="D102" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>346</v>
       </c>
       <c r="F102" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G102" s="7" t="s">
@@ -4712,21 +4712,21 @@
         <v>100</v>
       </c>
       <c r="B103" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A103), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D103" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>347</v>
       </c>
       <c r="F103" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G103" s="7" t="s">
@@ -4738,21 +4738,21 @@
         <v>101</v>
       </c>
       <c r="B104" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A104), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>229</v>
       </c>
       <c r="D104" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>347</v>
       </c>
       <c r="F104" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G104" s="7" t="s">
@@ -4764,21 +4764,21 @@
         <v>102</v>
       </c>
       <c r="B105" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A105), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D105" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>347</v>
       </c>
       <c r="F105" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G105" s="7" t="s">
@@ -4790,21 +4790,21 @@
         <v>103</v>
       </c>
       <c r="B106" s="30" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A106), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C106" s="31" t="s">
         <v>232</v>
       </c>
       <c r="D106" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E106" s="29" t="s">
         <v>348</v>
       </c>
       <c r="F106" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G106" s="29" t="s">
@@ -4816,21 +4816,21 @@
         <v>103</v>
       </c>
       <c r="B107" s="30" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A107), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C107" s="31" t="s">
         <v>232</v>
       </c>
       <c r="D107" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E107" s="29" t="s">
         <v>358</v>
       </c>
       <c r="F107" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G107" s="29" t="s">
@@ -4842,21 +4842,21 @@
         <v>104</v>
       </c>
       <c r="B108" s="26" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A108), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C108" s="27" t="s">
         <v>233</v>
       </c>
       <c r="D108" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>348</v>
       </c>
       <c r="F108" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G108" s="25" t="s">
@@ -4868,21 +4868,21 @@
         <v>104</v>
       </c>
       <c r="B109" s="26" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A109), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C109" s="27" t="s">
         <v>233</v>
       </c>
       <c r="D109" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E109" s="25" t="s">
         <v>358</v>
       </c>
       <c r="F109" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G109" s="25" t="s">
@@ -4894,21 +4894,21 @@
         <v>105</v>
       </c>
       <c r="B110" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A110), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>228</v>
       </c>
       <c r="D110" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>349</v>
       </c>
       <c r="F110" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G110" s="7" t="s">
@@ -4920,21 +4920,21 @@
         <v>106</v>
       </c>
       <c r="B111" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A111), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>221</v>
       </c>
       <c r="D111" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>350</v>
       </c>
       <c r="F111" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G111" s="7" t="s">
@@ -4946,21 +4946,21 @@
         <v>107</v>
       </c>
       <c r="B112" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A112), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>222</v>
       </c>
       <c r="D112" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>350</v>
       </c>
       <c r="F112" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G112" s="7" t="s">
@@ -4972,21 +4972,21 @@
         <v>108</v>
       </c>
       <c r="B113" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A113), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D113" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>351</v>
       </c>
       <c r="F113" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G113" s="7" t="s">
@@ -4998,21 +4998,21 @@
         <v>109</v>
       </c>
       <c r="B114" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A114), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>220</v>
       </c>
       <c r="D114" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>352</v>
       </c>
       <c r="F114" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G114" s="7" t="s">
@@ -5024,21 +5024,21 @@
         <v>110</v>
       </c>
       <c r="B115" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A115), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>227</v>
       </c>
       <c r="D115" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>353</v>
       </c>
       <c r="F115" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G115" s="7" t="s">
@@ -5050,21 +5050,21 @@
         <v>111</v>
       </c>
       <c r="B116" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A116), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>353</v>
       </c>
       <c r="F116" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G116" s="7" t="s">
@@ -5076,21 +5076,21 @@
         <v>112</v>
       </c>
       <c r="B117" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A117), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>224</v>
       </c>
       <c r="D117" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>354</v>
       </c>
       <c r="F117" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G117" s="7" t="s">
@@ -5102,21 +5102,21 @@
         <v>113</v>
       </c>
       <c r="B118" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A118), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>225</v>
       </c>
       <c r="D118" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>354</v>
       </c>
       <c r="F118" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="G118" s="7" t="s">
@@ -5128,21 +5128,21 @@
         <v>114</v>
       </c>
       <c r="B119" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A119), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>223</v>
       </c>
       <c r="D119" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>354</v>
       </c>
       <c r="F119" s="5" t="str">
-        <f t="shared" ref="F119:F123" si="4">HYPERLINK(_xlfn.CONCAT("https://www.wikidata.org/wiki/",E119),"Klik")</f>
+        <f t="shared" ref="F119:F123" si="8">HYPERLINK(_xlfn.CONCAT("https://www.wikidata.org/wiki/",E119),"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="G119" s="7" t="s">
@@ -5154,21 +5154,21 @@
         <v>115</v>
       </c>
       <c r="B120" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A120), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D120" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>355</v>
       </c>
       <c r="F120" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="G120" s="7" t="s">
@@ -5180,21 +5180,21 @@
         <v>116</v>
       </c>
       <c r="B121" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A121), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>216</v>
       </c>
       <c r="D121" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>355</v>
       </c>
       <c r="F121" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="G121" s="7" t="s">
@@ -5206,21 +5206,21 @@
         <v>117</v>
       </c>
       <c r="B122" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A122), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>217</v>
       </c>
       <c r="D122" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Klik</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>355</v>
       </c>
       <c r="F122" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="G122" s="7" t="s">
@@ -5232,21 +5232,21 @@
         <v>118</v>
       </c>
       <c r="B123" s="4" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A123), "Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D123" s="4" t="str">
-        <f t="shared" ref="D123" si="5">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/Special:EntityData/",C123), "Klik")</f>
+        <f t="shared" ref="D123" si="9">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/Special:EntityData/",C123), "Klik")</f>
         <v>Klik</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>356</v>
       </c>
       <c r="F123" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="G123" s="7" t="s">
@@ -5263,15 +5263,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F103E0793D5F104CAE42DBB99DAEAF81" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="932f9a9786f5dd15b3931177aa49ff81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1da70d4b-1c58-4f0f-b3c0-05d14f132412" xmlns:ns3="df49fdc9-6e5f-4ad7-885a-91f0714275f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65c4c81c762be150ad766b4e12f79462" ns2:_="" ns3:_="">
     <xsd:import namespace="1da70d4b-1c58-4f0f-b3c0-05d14f132412"/>
@@ -5482,6 +5473,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5489,14 +5489,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846FBAA9-9E9B-46AA-92FB-F7122506FB5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C6EF2E-4AEF-4483-8409-CD871FB4030D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5515,6 +5507,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846FBAA9-9E9B-46AA-92FB-F7122506FB5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D9CFD3-EC78-45F2-BF93-225EECFF7FE4}">
   <ds:schemaRefs>
